--- a/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter05/SingleCorrelation.xlsx
+++ b/LinkedIn/Excel_Data_Analysis/Exercise Files/Chapter05/SingleCorrelation.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Desktop\Exercise Files\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtalebiz\Desktop\Jupyter\Examples\LinkedIn\Excel_Data_Analysis\Exercise Files\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90671ABE-7DFF-4409-BD59-5A6237EC5FD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B415C-A25B-4018-AA73-D525F31AAFCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -366,7 +372,7 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +398,10 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <f>CORREL(A3:A12,B3:B12)</f>
+        <v>0.52215067084168709</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
